--- a/scrapers/scraped-data/ILCA7 2023_ilca 7.xlsx
+++ b/scrapers/scraped-data/ILCA7 2023_ilca 7.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
